--- a/data/panelapp/uk/Renal superpanel - broad.xlsx
+++ b/data/panelapp/uk/Renal superpanel - broad.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524463</t>
+          <t>2021-10-05 14:22:31.011608</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524474</t>
+          <t>2021-10-05 14:22:31.011616</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524477</t>
+          <t>2021-10-05 14:22:31.011620</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524480</t>
+          <t>2021-10-05 14:22:31.011623</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524484</t>
+          <t>2021-10-05 14:22:31.011626</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524487</t>
+          <t>2021-10-05 14:22:31.011629</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524489</t>
+          <t>2021-10-05 14:22:31.011632</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524493</t>
+          <t>2021-10-05 14:22:31.011634</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524496</t>
+          <t>2021-10-05 14:22:31.011638</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524499</t>
+          <t>2021-10-05 14:22:31.011640</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524501</t>
+          <t>2021-10-05 14:22:31.011643</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524504</t>
+          <t>2021-10-05 14:22:31.011646</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524507</t>
+          <t>2021-10-05 14:22:31.011648</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524510</t>
+          <t>2021-10-05 14:22:31.011651</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524513</t>
+          <t>2021-10-05 14:22:31.011654</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524516</t>
+          <t>2021-10-05 14:22:31.011657</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524519</t>
+          <t>2021-10-05 14:22:31.011660</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524521</t>
+          <t>2021-10-05 14:22:31.011663</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524525</t>
+          <t>2021-10-05 14:22:31.011666</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524528</t>
+          <t>2021-10-05 14:22:31.011668</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524530</t>
+          <t>2021-10-05 14:22:31.011671</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524533</t>
+          <t>2021-10-05 14:22:31.011673</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524536</t>
+          <t>2021-10-05 14:22:31.011676</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524539</t>
+          <t>2021-10-05 14:22:31.011679</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524542</t>
+          <t>2021-10-05 14:22:31.011682</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524545</t>
+          <t>2021-10-05 14:22:31.011685</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524548</t>
+          <t>2021-10-05 14:22:31.011687</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524551</t>
+          <t>2021-10-05 14:22:31.011690</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524554</t>
+          <t>2021-10-05 14:22:31.011693</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524556</t>
+          <t>2021-10-05 14:22:31.011696</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524559</t>
+          <t>2021-10-05 14:22:31.011698</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524562</t>
+          <t>2021-10-05 14:22:31.011701</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524565</t>
+          <t>2021-10-05 14:22:31.011704</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524568</t>
+          <t>2021-10-05 14:22:31.011707</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524571</t>
+          <t>2021-10-05 14:22:31.011710</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524573</t>
+          <t>2021-10-05 14:22:31.011713</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524576</t>
+          <t>2021-10-05 14:22:31.011715</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524579</t>
+          <t>2021-10-05 14:22:31.011718</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524582</t>
+          <t>2021-10-05 14:22:31.011721</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524584</t>
+          <t>2021-10-05 14:22:31.011724</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524588</t>
+          <t>2021-10-05 14:22:31.011726</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524590</t>
+          <t>2021-10-05 14:22:31.011729</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524593</t>
+          <t>2021-10-05 14:22:31.011732</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524596</t>
+          <t>2021-10-05 14:22:31.011735</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524599</t>
+          <t>2021-10-05 14:22:31.011737</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524601</t>
+          <t>2021-10-05 14:22:31.011740</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524604</t>
+          <t>2021-10-05 14:22:31.011743</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524607</t>
+          <t>2021-10-05 14:22:31.011745</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524610</t>
+          <t>2021-10-05 14:22:31.011748</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524612</t>
+          <t>2021-10-05 14:22:31.011751</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524616</t>
+          <t>2021-10-05 14:22:31.011754</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524618</t>
+          <t>2021-10-05 14:22:31.011757</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524622</t>
+          <t>2021-10-05 14:22:31.011760</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524625</t>
+          <t>2021-10-05 14:22:31.011763</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524627</t>
+          <t>2021-10-05 14:22:31.011766</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524630</t>
+          <t>2021-10-05 14:22:31.011768</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524633</t>
+          <t>2021-10-05 14:22:31.011771</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524636</t>
+          <t>2021-10-05 14:22:31.011774</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524638</t>
+          <t>2021-10-05 14:22:31.011776</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524641</t>
+          <t>2021-10-05 14:22:31.011779</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524644</t>
+          <t>2021-10-05 14:22:31.011782</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524646</t>
+          <t>2021-10-05 14:22:31.011784</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524649</t>
+          <t>2021-10-05 14:22:31.011787</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524652</t>
+          <t>2021-10-05 14:22:31.011790</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524656</t>
+          <t>2021-10-05 14:22:31.011794</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524659</t>
+          <t>2021-10-05 14:22:31.011797</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524661</t>
+          <t>2021-10-05 14:22:31.011800</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524664</t>
+          <t>2021-10-05 14:22:31.011803</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524667</t>
+          <t>2021-10-05 14:22:31.011806</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524670</t>
+          <t>2021-10-05 14:22:31.011809</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524673</t>
+          <t>2021-10-05 14:22:31.011811</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524675</t>
+          <t>2021-10-05 14:22:31.011814</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524678</t>
+          <t>2021-10-05 14:22:31.011817</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524681</t>
+          <t>2021-10-05 14:22:31.011820</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524684</t>
+          <t>2021-10-05 14:22:31.011822</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524687</t>
+          <t>2021-10-05 14:22:31.011825</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524692</t>
+          <t>2021-10-05 14:22:31.011830</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524695</t>
+          <t>2021-10-05 14:22:31.011833</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524698</t>
+          <t>2021-10-05 14:22:31.011836</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524700</t>
+          <t>2021-10-05 14:22:31.011839</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524703</t>
+          <t>2021-10-05 14:22:31.011841</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524706</t>
+          <t>2021-10-05 14:22:31.011844</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524708</t>
+          <t>2021-10-05 14:22:31.011847</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524711</t>
+          <t>2021-10-05 14:22:31.011850</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524714</t>
+          <t>2021-10-05 14:22:31.011852</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524717</t>
+          <t>2021-10-05 14:22:31.011856</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524720</t>
+          <t>2021-10-05 14:22:31.011858</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524722</t>
+          <t>2021-10-05 14:22:31.011861</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524725</t>
+          <t>2021-10-05 14:22:31.011864</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524728</t>
+          <t>2021-10-05 14:22:31.011866</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524731</t>
+          <t>2021-10-05 14:22:31.011869</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524733</t>
+          <t>2021-10-05 14:22:31.011872</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524737</t>
+          <t>2021-10-05 14:22:31.011876</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524740</t>
+          <t>2021-10-05 14:22:31.011879</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524743</t>
+          <t>2021-10-05 14:22:31.011882</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524746</t>
+          <t>2021-10-05 14:22:31.011885</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524749</t>
+          <t>2021-10-05 14:22:31.011888</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524752</t>
+          <t>2021-10-05 14:22:31.011891</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524755</t>
+          <t>2021-10-05 14:22:31.011893</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524757</t>
+          <t>2021-10-05 14:22:31.011896</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524760</t>
+          <t>2021-10-05 14:22:31.011899</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524763</t>
+          <t>2021-10-05 14:22:31.011901</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524765</t>
+          <t>2021-10-05 14:22:31.011904</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524768</t>
+          <t>2021-10-05 14:22:31.011907</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524771</t>
+          <t>2021-10-05 14:22:31.011909</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524774</t>
+          <t>2021-10-05 14:22:31.011912</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524777</t>
+          <t>2021-10-05 14:22:31.011915</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524780</t>
+          <t>2021-10-05 14:22:31.011918</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524785</t>
+          <t>2021-10-05 14:22:31.011923</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524788</t>
+          <t>2021-10-05 14:22:31.011927</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524791</t>
+          <t>2021-10-05 14:22:31.011929</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524794</t>
+          <t>2021-10-05 14:22:31.011932</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524796</t>
+          <t>2021-10-05 14:22:31.011935</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524799</t>
+          <t>2021-10-05 14:22:31.011938</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524802</t>
+          <t>2021-10-05 14:22:31.011940</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524804</t>
+          <t>2021-10-05 14:22:31.011943</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524807</t>
+          <t>2021-10-05 14:22:31.011946</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524810</t>
+          <t>2021-10-05 14:22:31.011949</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524813</t>
+          <t>2021-10-05 14:22:31.011951</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524816</t>
+          <t>2021-10-05 14:22:31.011954</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524819</t>
+          <t>2021-10-05 14:22:31.011957</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524822</t>
+          <t>2021-10-05 14:22:31.011959</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524824</t>
+          <t>2021-10-05 14:22:31.011962</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524827</t>
+          <t>2021-10-05 14:22:31.011965</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524830</t>
+          <t>2021-10-05 14:22:31.011968</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524832</t>
+          <t>2021-10-05 14:22:31.011970</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524835</t>
+          <t>2021-10-05 14:22:31.011973</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524838</t>
+          <t>2021-10-05 14:22:31.011976</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524843</t>
+          <t>2021-10-05 14:22:31.011981</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524846</t>
+          <t>2021-10-05 14:22:31.011984</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524850</t>
+          <t>2021-10-05 14:22:31.011987</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524852</t>
+          <t>2021-10-05 14:22:31.011989</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524855</t>
+          <t>2021-10-05 14:22:31.011992</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524858</t>
+          <t>2021-10-05 14:22:31.011995</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524861</t>
+          <t>2021-10-05 14:22:31.011997</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524864</t>
+          <t>2021-10-05 14:22:31.012000</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524867</t>
+          <t>2021-10-05 14:22:31.012003</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524869</t>
+          <t>2021-10-05 14:22:31.012006</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524872</t>
+          <t>2021-10-05 14:22:31.012008</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524875</t>
+          <t>2021-10-05 14:22:31.012011</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524878</t>
+          <t>2021-10-05 14:22:31.012014</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524881</t>
+          <t>2021-10-05 14:22:31.012017</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524884</t>
+          <t>2021-10-05 14:22:31.012020</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524887</t>
+          <t>2021-10-05 14:22:31.012023</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524889</t>
+          <t>2021-10-05 14:22:31.012025</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524892</t>
+          <t>2021-10-05 14:22:31.012028</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524894</t>
+          <t>2021-10-05 14:22:31.012031</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524897</t>
+          <t>2021-10-05 14:22:31.012034</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524900</t>
+          <t>2021-10-05 14:22:31.012037</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524902</t>
+          <t>2021-10-05 14:22:31.012039</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524905</t>
+          <t>2021-10-05 14:22:31.012042</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524908</t>
+          <t>2021-10-05 14:22:31.012045</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524910</t>
+          <t>2021-10-05 14:22:31.012048</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524913</t>
+          <t>2021-10-05 14:22:31.012050</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524916</t>
+          <t>2021-10-05 14:22:31.012053</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524918</t>
+          <t>2021-10-05 14:22:31.012056</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524921</t>
+          <t>2021-10-05 14:22:31.012059</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524924</t>
+          <t>2021-10-05 14:22:31.012062</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524926</t>
+          <t>2021-10-05 14:22:31.012064</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524929</t>
+          <t>2021-10-05 14:22:31.012067</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524931</t>
+          <t>2021-10-05 14:22:31.012070</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524934</t>
+          <t>2021-10-05 14:22:31.012072</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524937</t>
+          <t>2021-10-05 14:22:31.012075</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524939</t>
+          <t>2021-10-05 14:22:31.012078</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524942</t>
+          <t>2021-10-05 14:22:31.012081</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524944</t>
+          <t>2021-10-05 14:22:31.012084</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524947</t>
+          <t>2021-10-05 14:22:31.012086</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524950</t>
+          <t>2021-10-05 14:22:31.012089</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524952</t>
+          <t>2021-10-05 14:22:31.012092</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524955</t>
+          <t>2021-10-05 14:22:31.012094</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524958</t>
+          <t>2021-10-05 14:22:31.012097</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524961</t>
+          <t>2021-10-05 14:22:31.012100</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524965</t>
+          <t>2021-10-05 14:22:31.012104</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524968</t>
+          <t>2021-10-05 14:22:31.012107</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524971</t>
+          <t>2021-10-05 14:22:31.012110</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524974</t>
+          <t>2021-10-05 14:22:31.012113</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524976</t>
+          <t>2021-10-05 14:22:31.012115</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524979</t>
+          <t>2021-10-05 14:22:31.012118</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524981</t>
+          <t>2021-10-05 14:22:31.012121</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524984</t>
+          <t>2021-10-05 14:22:31.012124</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524987</t>
+          <t>2021-10-05 14:22:31.012126</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524989</t>
+          <t>2021-10-05 14:22:31.012129</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524992</t>
+          <t>2021-10-05 14:22:31.012132</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524994</t>
+          <t>2021-10-05 14:22:31.012135</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.524997</t>
+          <t>2021-10-05 14:22:31.012137</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525000</t>
+          <t>2021-10-05 14:22:31.012140</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525002</t>
+          <t>2021-10-05 14:22:31.012143</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525005</t>
+          <t>2021-10-05 14:22:31.012145</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525008</t>
+          <t>2021-10-05 14:22:31.012148</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525010</t>
+          <t>2021-10-05 14:22:31.012151</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525013</t>
+          <t>2021-10-05 14:22:31.012153</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525016</t>
+          <t>2021-10-05 14:22:31.012156</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525018</t>
+          <t>2021-10-05 14:22:31.012158</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525021</t>
+          <t>2021-10-05 14:22:31.012161</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525024</t>
+          <t>2021-10-05 14:22:31.012164</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525026</t>
+          <t>2021-10-05 14:22:31.012167</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525029</t>
+          <t>2021-10-05 14:22:31.012169</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525032</t>
+          <t>2021-10-05 14:22:31.012172</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525034</t>
+          <t>2021-10-05 14:22:31.012175</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525037</t>
+          <t>2021-10-05 14:22:31.012178</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525040</t>
+          <t>2021-10-05 14:22:31.012181</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525043</t>
+          <t>2021-10-05 14:22:31.012184</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525045</t>
+          <t>2021-10-05 14:22:31.012187</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525048</t>
+          <t>2021-10-05 14:22:31.012189</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525051</t>
+          <t>2021-10-05 14:22:31.012192</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525054</t>
+          <t>2021-10-05 14:22:31.012194</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525056</t>
+          <t>2021-10-05 14:22:31.012197</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525059</t>
+          <t>2021-10-05 14:22:31.012200</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525061</t>
+          <t>2021-10-05 14:22:31.012203</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525064</t>
+          <t>2021-10-05 14:22:31.012205</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525066</t>
+          <t>2021-10-05 14:22:31.012208</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525069</t>
+          <t>2021-10-05 14:22:31.012211</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525072</t>
+          <t>2021-10-05 14:22:31.012213</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525074</t>
+          <t>2021-10-05 14:22:31.012216</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525077</t>
+          <t>2021-10-05 14:22:31.012219</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525080</t>
+          <t>2021-10-05 14:22:31.012222</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525082</t>
+          <t>2021-10-05 14:22:31.012224</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525085</t>
+          <t>2021-10-05 14:22:31.012227</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525088</t>
+          <t>2021-10-05 14:22:31.012230</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525090</t>
+          <t>2021-10-05 14:22:31.012233</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525093</t>
+          <t>2021-10-05 14:22:31.012235</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525096</t>
+          <t>2021-10-05 14:22:31.012238</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525098</t>
+          <t>2021-10-05 14:22:31.012241</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525101</t>
+          <t>2021-10-05 14:22:31.012244</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525103</t>
+          <t>2021-10-05 14:22:31.012246</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525106</t>
+          <t>2021-10-05 14:22:31.012249</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525109</t>
+          <t>2021-10-05 14:22:31.012252</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525111</t>
+          <t>2021-10-05 14:22:31.012255</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525114</t>
+          <t>2021-10-05 14:22:31.012257</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525117</t>
+          <t>2021-10-05 14:22:31.012260</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525120</t>
+          <t>2021-10-05 14:22:31.012263</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525122</t>
+          <t>2021-10-05 14:22:31.012266</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525127</t>
+          <t>2021-10-05 14:22:31.012270</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525130</t>
+          <t>2021-10-05 14:22:31.012273</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525133</t>
+          <t>2021-10-05 14:22:31.012276</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525135</t>
+          <t>2021-10-05 14:22:31.012279</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525138</t>
+          <t>2021-10-05 14:22:31.012281</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525141</t>
+          <t>2021-10-05 14:22:31.012284</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525144</t>
+          <t>2021-10-05 14:22:31.012287</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525146</t>
+          <t>2021-10-05 14:22:31.012290</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525149</t>
+          <t>2021-10-05 14:22:31.012292</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525152</t>
+          <t>2021-10-05 14:22:31.012295</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525154</t>
+          <t>2021-10-05 14:22:31.012297</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525157</t>
+          <t>2021-10-05 14:22:31.012300</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525160</t>
+          <t>2021-10-05 14:22:31.012303</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525162</t>
+          <t>2021-10-05 14:22:31.012306</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525165</t>
+          <t>2021-10-05 14:22:31.012309</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525167</t>
+          <t>2021-10-05 14:22:31.012312</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525170</t>
+          <t>2021-10-05 14:22:31.012315</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525173</t>
+          <t>2021-10-05 14:22:31.012317</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525175</t>
+          <t>2021-10-05 14:22:31.012320</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525178</t>
+          <t>2021-10-05 14:22:31.012323</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525181</t>
+          <t>2021-10-05 14:22:31.012326</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525184</t>
+          <t>2021-10-05 14:22:31.012328</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525186</t>
+          <t>2021-10-05 14:22:31.012331</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525189</t>
+          <t>2021-10-05 14:22:31.012334</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525192</t>
+          <t>2021-10-05 14:22:31.012337</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525195</t>
+          <t>2021-10-05 14:22:31.012340</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525197</t>
+          <t>2021-10-05 14:22:31.012342</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525200</t>
+          <t>2021-10-05 14:22:31.012345</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525202</t>
+          <t>2021-10-05 14:22:31.012348</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525205</t>
+          <t>2021-10-05 14:22:31.012351</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525208</t>
+          <t>2021-10-05 14:22:31.012353</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525210</t>
+          <t>2021-10-05 14:22:31.012356</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525213</t>
+          <t>2021-10-05 14:22:31.012359</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525215</t>
+          <t>2021-10-05 14:22:31.012362</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525218</t>
+          <t>2021-10-05 14:22:31.012364</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525221</t>
+          <t>2021-10-05 14:22:31.012367</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525223</t>
+          <t>2021-10-05 14:22:31.012370</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525226</t>
+          <t>2021-10-05 14:22:31.012373</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525229</t>
+          <t>2021-10-05 14:22:31.012376</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525232</t>
+          <t>2021-10-05 14:22:31.012378</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525235</t>
+          <t>2021-10-05 14:22:31.012381</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525238</t>
+          <t>2021-10-05 14:22:31.012384</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525240</t>
+          <t>2021-10-05 14:22:31.012387</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525243</t>
+          <t>2021-10-05 14:22:31.012390</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525246</t>
+          <t>2021-10-05 14:22:31.012393</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525248</t>
+          <t>2021-10-05 14:22:31.012395</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525251</t>
+          <t>2021-10-05 14:22:31.012398</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525253</t>
+          <t>2021-10-05 14:22:31.012400</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525256</t>
+          <t>2021-10-05 14:22:31.012403</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525259</t>
+          <t>2021-10-05 14:22:31.012406</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525261</t>
+          <t>2021-10-05 14:22:31.012408</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525264</t>
+          <t>2021-10-05 14:22:31.012411</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525267</t>
+          <t>2021-10-05 14:22:31.012414</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525269</t>
+          <t>2021-10-05 14:22:31.012417</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525272</t>
+          <t>2021-10-05 14:22:31.012419</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525275</t>
+          <t>2021-10-05 14:22:31.012422</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525277</t>
+          <t>2021-10-05 14:22:31.012425</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525280</t>
+          <t>2021-10-05 14:22:31.012427</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525283</t>
+          <t>2021-10-05 14:22:31.012430</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525285</t>
+          <t>2021-10-05 14:22:31.012433</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525288</t>
+          <t>2021-10-05 14:22:31.012435</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525291</t>
+          <t>2021-10-05 14:22:31.012438</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525293</t>
+          <t>2021-10-05 14:22:31.012441</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525296</t>
+          <t>2021-10-05 14:22:31.012444</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525299</t>
+          <t>2021-10-05 14:22:31.012447</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525301</t>
+          <t>2021-10-05 14:22:31.012449</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525304</t>
+          <t>2021-10-05 14:22:31.012452</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525307</t>
+          <t>2021-10-05 14:22:31.012455</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525309</t>
+          <t>2021-10-05 14:22:31.012458</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525312</t>
+          <t>2021-10-05 14:22:31.012461</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525315</t>
+          <t>2021-10-05 14:22:31.012463</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525317</t>
+          <t>2021-10-05 14:22:31.012466</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525320</t>
+          <t>2021-10-05 14:22:31.012468</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525323</t>
+          <t>2021-10-05 14:22:31.012471</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525325</t>
+          <t>2021-10-05 14:22:31.012474</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525328</t>
+          <t>2021-10-05 14:22:31.012477</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525333</t>
+          <t>2021-10-05 14:22:31.012481</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525336</t>
+          <t>2021-10-05 14:22:31.012484</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525339</t>
+          <t>2021-10-05 14:22:31.012487</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525341</t>
+          <t>2021-10-05 14:22:31.012490</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525344</t>
+          <t>2021-10-05 14:22:31.012493</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525347</t>
+          <t>2021-10-05 14:22:31.012495</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525350</t>
+          <t>2021-10-05 14:22:31.012498</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525352</t>
+          <t>2021-10-05 14:22:31.012501</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525355</t>
+          <t>2021-10-05 14:22:31.012504</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525357</t>
+          <t>2021-10-05 14:22:31.012507</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525360</t>
+          <t>2021-10-05 14:22:31.012509</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525363</t>
+          <t>2021-10-05 14:22:31.012512</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525366</t>
+          <t>2021-10-05 14:22:31.012515</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525368</t>
+          <t>2021-10-05 14:22:31.012517</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525371</t>
+          <t>2021-10-05 14:22:31.012520</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525374</t>
+          <t>2021-10-05 14:22:31.012523</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525377</t>
+          <t>2021-10-05 14:22:31.012526</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525379</t>
+          <t>2021-10-05 14:22:31.012528</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525382</t>
+          <t>2021-10-05 14:22:31.012531</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525385</t>
+          <t>2021-10-05 14:22:31.012534</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525388</t>
+          <t>2021-10-05 14:22:31.012536</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525390</t>
+          <t>2021-10-05 14:22:31.012539</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525393</t>
+          <t>2021-10-05 14:22:31.012541</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525395</t>
+          <t>2021-10-05 14:22:31.012544</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525398</t>
+          <t>2021-10-05 14:22:31.012547</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525401</t>
+          <t>2021-10-05 14:22:31.012549</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525403</t>
+          <t>2021-10-05 14:22:31.012552</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525406</t>
+          <t>2021-10-05 14:22:31.012555</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525409</t>
+          <t>2021-10-05 14:22:31.012557</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525411</t>
+          <t>2021-10-05 14:22:31.012560</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525414</t>
+          <t>2021-10-05 14:22:31.012563</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525416</t>
+          <t>2021-10-05 14:22:31.012565</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525419</t>
+          <t>2021-10-05 14:22:31.012568</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525421</t>
+          <t>2021-10-05 14:22:31.012571</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525424</t>
+          <t>2021-10-05 14:22:31.012574</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525427</t>
+          <t>2021-10-05 14:22:31.012577</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525430</t>
+          <t>2021-10-05 14:22:31.012580</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525432</t>
+          <t>2021-10-05 14:22:31.012583</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525435</t>
+          <t>2021-10-05 14:22:31.012585</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525438</t>
+          <t>2021-10-05 14:22:31.012588</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525440</t>
+          <t>2021-10-05 14:22:31.012591</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525443</t>
+          <t>2021-10-05 14:22:31.012593</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525446</t>
+          <t>2021-10-05 14:22:31.012596</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525449</t>
+          <t>2021-10-05 14:22:31.012599</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525453</t>
+          <t>2021-10-05 14:22:31.012603</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525456</t>
+          <t>2021-10-05 14:22:31.012607</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525459</t>
+          <t>2021-10-05 14:22:31.012609</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525462</t>
+          <t>2021-10-05 14:22:31.012612</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525465</t>
+          <t>2021-10-05 14:22:31.012614</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525467</t>
+          <t>2021-10-05 14:22:31.012617</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525470</t>
+          <t>2021-10-05 14:22:31.012620</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525473</t>
+          <t>2021-10-05 14:22:31.012623</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525475</t>
+          <t>2021-10-05 14:22:31.012625</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525478</t>
+          <t>2021-10-05 14:22:31.012628</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525481</t>
+          <t>2021-10-05 14:22:31.012631</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525483</t>
+          <t>2021-10-05 14:22:31.012633</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525486</t>
+          <t>2021-10-05 14:22:31.012636</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525488</t>
+          <t>2021-10-05 14:22:31.012639</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525491</t>
+          <t>2021-10-05 14:22:31.012641</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525494</t>
+          <t>2021-10-05 14:22:31.012644</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525497</t>
+          <t>2021-10-05 14:22:31.012646</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525499</t>
+          <t>2021-10-05 14:22:31.012649</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525502</t>
+          <t>2021-10-05 14:22:31.012652</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525504</t>
+          <t>2021-10-05 14:22:31.012654</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525507</t>
+          <t>2021-10-05 14:22:31.012657</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525510</t>
+          <t>2021-10-05 14:22:31.012660</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525512</t>
+          <t>2021-10-05 14:22:31.012663</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525515</t>
+          <t>2021-10-05 14:22:31.012665</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525518</t>
+          <t>2021-10-05 14:22:31.012668</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525520</t>
+          <t>2021-10-05 14:22:31.012671</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525523</t>
+          <t>2021-10-05 14:22:31.012673</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525525</t>
+          <t>2021-10-05 14:22:31.012676</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525528</t>
+          <t>2021-10-05 14:22:31.012679</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525530</t>
+          <t>2021-10-05 14:22:31.012681</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525533</t>
+          <t>2021-10-05 14:22:31.012684</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525536</t>
+          <t>2021-10-05 14:22:31.012687</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525538</t>
+          <t>2021-10-05 14:22:31.012690</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525541</t>
+          <t>2021-10-05 14:22:31.012692</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525544</t>
+          <t>2021-10-05 14:22:31.012695</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525546</t>
+          <t>2021-10-05 14:22:31.012698</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525549</t>
+          <t>2021-10-05 14:22:31.012700</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525551</t>
+          <t>2021-10-05 14:22:31.012703</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525554</t>
+          <t>2021-10-05 14:22:31.012706</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525557</t>
+          <t>2021-10-05 14:22:31.012708</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525559</t>
+          <t>2021-10-05 14:22:31.012711</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525562</t>
+          <t>2021-10-05 14:22:31.012714</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525565</t>
+          <t>2021-10-05 14:22:31.012716</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525567</t>
+          <t>2021-10-05 14:22:31.012719</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525570</t>
+          <t>2021-10-05 14:22:31.012722</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525572</t>
+          <t>2021-10-05 14:22:31.012724</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525575</t>
+          <t>2021-10-05 14:22:31.012727</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525578</t>
+          <t>2021-10-05 14:22:31.012730</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525581</t>
+          <t>2021-10-05 14:22:31.012734</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525584</t>
+          <t>2021-10-05 14:22:31.012737</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525587</t>
+          <t>2021-10-05 14:22:31.012740</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525590</t>
+          <t>2021-10-05 14:22:31.012743</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525592</t>
+          <t>2021-10-05 14:22:31.012746</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525595</t>
+          <t>2021-10-05 14:22:31.012749</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525597</t>
+          <t>2021-10-05 14:22:31.012752</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525600</t>
+          <t>2021-10-05 14:22:31.012755</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525603</t>
+          <t>2021-10-05 14:22:31.012757</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525606</t>
+          <t>2021-10-05 14:22:31.012760</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525608</t>
+          <t>2021-10-05 14:22:31.012763</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525611</t>
+          <t>2021-10-05 14:22:31.012765</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525614</t>
+          <t>2021-10-05 14:22:31.012768</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525616</t>
+          <t>2021-10-05 14:22:31.012771</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525619</t>
+          <t>2021-10-05 14:22:31.012773</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525622</t>
+          <t>2021-10-05 14:22:31.012776</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525624</t>
+          <t>2021-10-05 14:22:31.012779</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525627</t>
+          <t>2021-10-05 14:22:31.012781</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525630</t>
+          <t>2021-10-05 14:22:31.012784</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525632</t>
+          <t>2021-10-05 14:22:31.012787</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525635</t>
+          <t>2021-10-05 14:22:31.012789</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525637</t>
+          <t>2021-10-05 14:22:31.012792</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525640</t>
+          <t>2021-10-05 14:22:31.012795</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525643</t>
+          <t>2021-10-05 14:22:31.012797</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525645</t>
+          <t>2021-10-05 14:22:31.012800</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525648</t>
+          <t>2021-10-05 14:22:31.012803</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525651</t>
+          <t>2021-10-05 14:22:31.012805</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525653</t>
+          <t>2021-10-05 14:22:31.012808</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525656</t>
+          <t>2021-10-05 14:22:31.012811</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525659</t>
+          <t>2021-10-05 14:22:31.012813</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525661</t>
+          <t>2021-10-05 14:22:31.012816</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525664</t>
+          <t>2021-10-05 14:22:31.012818</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525666</t>
+          <t>2021-10-05 14:22:31.012821</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525669</t>
+          <t>2021-10-05 14:22:31.012823</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525671</t>
+          <t>2021-10-05 14:22:31.012826</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525674</t>
+          <t>2021-10-05 14:22:31.012829</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525677</t>
+          <t>2021-10-05 14:22:31.012831</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525679</t>
+          <t>2021-10-05 14:22:31.012834</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525682</t>
+          <t>2021-10-05 14:22:31.012836</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525684</t>
+          <t>2021-10-05 14:22:31.012839</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525687</t>
+          <t>2021-10-05 14:22:31.012842</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525690</t>
+          <t>2021-10-05 14:22:31.012844</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525692</t>
+          <t>2021-10-05 14:22:31.012847</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525695</t>
+          <t>2021-10-05 14:22:31.012849</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525697</t>
+          <t>2021-10-05 14:22:31.012852</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525700</t>
+          <t>2021-10-05 14:22:31.012855</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525703</t>
+          <t>2021-10-05 14:22:31.012857</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525705</t>
+          <t>2021-10-05 14:22:31.012860</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525708</t>
+          <t>2021-10-05 14:22:31.012863</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525711</t>
+          <t>2021-10-05 14:22:31.012865</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525713</t>
+          <t>2021-10-05 14:22:31.012868</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525716</t>
+          <t>2021-10-05 14:22:31.012870</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525719</t>
+          <t>2021-10-05 14:22:31.012873</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525721</t>
+          <t>2021-10-05 14:22:31.012875</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525724</t>
+          <t>2021-10-05 14:22:31.012878</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525727</t>
+          <t>2021-10-05 14:22:31.012881</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525730</t>
+          <t>2021-10-05 14:22:31.012884</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525733</t>
+          <t>2021-10-05 14:22:31.012888</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525736</t>
+          <t>2021-10-05 14:22:31.012890</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525738</t>
+          <t>2021-10-05 14:22:31.012893</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525741</t>
+          <t>2021-10-05 14:22:31.012895</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525744</t>
+          <t>2021-10-05 14:22:31.012898</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525747</t>
+          <t>2021-10-05 14:22:31.012900</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525749</t>
+          <t>2021-10-05 14:22:31.012903</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525752</t>
+          <t>2021-10-05 14:22:31.012906</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525754</t>
+          <t>2021-10-05 14:22:31.012908</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525757</t>
+          <t>2021-10-05 14:22:31.012911</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525760</t>
+          <t>2021-10-05 14:22:31.012914</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525763</t>
+          <t>2021-10-05 14:22:31.012916</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525765</t>
+          <t>2021-10-05 14:22:31.012919</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525768</t>
+          <t>2021-10-05 14:22:31.012921</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525770</t>
+          <t>2021-10-05 14:22:31.012924</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525773</t>
+          <t>2021-10-05 14:22:31.012927</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525775</t>
+          <t>2021-10-05 14:22:31.012929</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525778</t>
+          <t>2021-10-05 14:22:31.012932</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525780</t>
+          <t>2021-10-05 14:22:31.012935</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525783</t>
+          <t>2021-10-05 14:22:31.012937</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525786</t>
+          <t>2021-10-05 14:22:31.012940</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525789</t>
+          <t>2021-10-05 14:22:31.012942</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525791</t>
+          <t>2021-10-05 14:22:31.012945</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525794</t>
+          <t>2021-10-05 14:22:31.012947</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525797</t>
+          <t>2021-10-05 14:22:31.012950</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525799</t>
+          <t>2021-10-05 14:22:31.012953</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525802</t>
+          <t>2021-10-05 14:22:31.012955</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525805</t>
+          <t>2021-10-05 14:22:31.012958</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525807</t>
+          <t>2021-10-05 14:22:31.012961</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525810</t>
+          <t>2021-10-05 14:22:31.012963</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525812</t>
+          <t>2021-10-05 14:22:31.012966</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525815</t>
+          <t>2021-10-05 14:22:31.012968</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525818</t>
+          <t>2021-10-05 14:22:31.012971</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525820</t>
+          <t>2021-10-05 14:22:31.012974</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525823</t>
+          <t>2021-10-05 14:22:31.012977</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525826</t>
+          <t>2021-10-05 14:22:31.012979</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525828</t>
+          <t>2021-10-05 14:22:31.012982</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525831</t>
+          <t>2021-10-05 14:22:31.012985</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525833</t>
+          <t>2021-10-05 14:22:31.012987</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525836</t>
+          <t>2021-10-05 14:22:31.012989</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525839</t>
+          <t>2021-10-05 14:22:31.012992</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525841</t>
+          <t>2021-10-05 14:22:31.012995</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525844</t>
+          <t>2021-10-05 14:22:31.012997</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525847</t>
+          <t>2021-10-05 14:22:31.013000</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525849</t>
+          <t>2021-10-05 14:22:31.013002</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525852</t>
+          <t>2021-10-05 14:22:31.013005</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525855</t>
+          <t>2021-10-05 14:22:31.013008</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525857</t>
+          <t>2021-10-05 14:22:31.013010</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525860</t>
+          <t>2021-10-05 14:22:31.013013</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525863</t>
+          <t>2021-10-05 14:22:31.013015</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525865</t>
+          <t>2021-10-05 14:22:31.013018</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525868</t>
+          <t>2021-10-05 14:22:31.013020</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525871</t>
+          <t>2021-10-05 14:22:31.013023</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525874</t>
+          <t>2021-10-05 14:22:31.013026</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525876</t>
+          <t>2021-10-05 14:22:31.013028</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525879</t>
+          <t>2021-10-05 14:22:31.013031</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525882</t>
+          <t>2021-10-05 14:22:31.013034</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525884</t>
+          <t>2021-10-05 14:22:31.013036</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525887</t>
+          <t>2021-10-05 14:22:31.013039</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525890</t>
+          <t>2021-10-05 14:22:31.013041</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525892</t>
+          <t>2021-10-05 14:22:31.013044</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525895</t>
+          <t>2021-10-05 14:22:31.013047</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525898</t>
+          <t>2021-10-05 14:22:31.013049</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525901</t>
+          <t>2021-10-05 14:22:31.013053</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525905</t>
+          <t>2021-10-05 14:22:31.013056</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525908</t>
+          <t>2021-10-05 14:22:31.013059</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525910</t>
+          <t>2021-10-05 14:22:31.013062</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525913</t>
+          <t>2021-10-05 14:22:31.013064</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525916</t>
+          <t>2021-10-05 14:22:31.013067</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525918</t>
+          <t>2021-10-05 14:22:31.013070</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525921</t>
+          <t>2021-10-05 14:22:31.013073</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525924</t>
+          <t>2021-10-05 14:22:31.013075</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525926</t>
+          <t>2021-10-05 14:22:31.013078</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525929</t>
+          <t>2021-10-05 14:22:31.013081</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525932</t>
+          <t>2021-10-05 14:22:31.013083</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525934</t>
+          <t>2021-10-05 14:22:31.013086</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525937</t>
+          <t>2021-10-05 14:22:31.013088</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525940</t>
+          <t>2021-10-05 14:22:31.013091</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525942</t>
+          <t>2021-10-05 14:22:31.013094</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525945</t>
+          <t>2021-10-05 14:22:31.013096</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525948</t>
+          <t>2021-10-05 14:22:31.013099</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525950</t>
+          <t>2021-10-05 14:22:31.013101</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525953</t>
+          <t>2021-10-05 14:22:31.013104</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525955</t>
+          <t>2021-10-05 14:22:31.013107</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525958</t>
+          <t>2021-10-05 14:22:31.013109</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525961</t>
+          <t>2021-10-05 14:22:31.013112</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525963</t>
+          <t>2021-10-05 14:22:31.013114</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525966</t>
+          <t>2021-10-05 14:22:31.013117</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525969</t>
+          <t>2021-10-05 14:22:31.013120</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525971</t>
+          <t>2021-10-05 14:22:31.013122</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525974</t>
+          <t>2021-10-05 14:22:31.013125</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525977</t>
+          <t>2021-10-05 14:22:31.013127</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525979</t>
+          <t>2021-10-05 14:22:31.013130</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525982</t>
+          <t>2021-10-05 14:22:31.013133</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525985</t>
+          <t>2021-10-05 14:22:31.013135</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525988</t>
+          <t>2021-10-05 14:22:31.013138</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525990</t>
+          <t>2021-10-05 14:22:31.013141</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525993</t>
+          <t>2021-10-05 14:22:31.013143</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525996</t>
+          <t>2021-10-05 14:22:31.013146</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.525999</t>
+          <t>2021-10-05 14:22:31.013148</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526001</t>
+          <t>2021-10-05 14:22:31.013151</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526004</t>
+          <t>2021-10-05 14:22:31.013154</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526007</t>
+          <t>2021-10-05 14:22:31.013156</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526010</t>
+          <t>2021-10-05 14:22:31.013159</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526012</t>
+          <t>2021-10-05 14:22:31.013162</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526015</t>
+          <t>2021-10-05 14:22:31.013164</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526018</t>
+          <t>2021-10-05 14:22:31.013167</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526020</t>
+          <t>2021-10-05 14:22:31.013169</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526023</t>
+          <t>2021-10-05 14:22:31.013172</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526026</t>
+          <t>2021-10-05 14:22:31.013174</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526028</t>
+          <t>2021-10-05 14:22:31.013177</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526031</t>
+          <t>2021-10-05 14:22:31.013179</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526033</t>
+          <t>2021-10-05 14:22:31.013182</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526036</t>
+          <t>2021-10-05 14:22:31.013185</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526039</t>
+          <t>2021-10-05 14:22:31.013187</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526041</t>
+          <t>2021-10-05 14:22:31.013190</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526044</t>
+          <t>2021-10-05 14:22:31.013192</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526047</t>
+          <t>2021-10-05 14:22:31.013195</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526050</t>
+          <t>2021-10-05 14:22:31.013197</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526052</t>
+          <t>2021-10-05 14:22:31.013200</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526055</t>
+          <t>2021-10-05 14:22:31.013203</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526058</t>
+          <t>2021-10-05 14:22:31.013205</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526060</t>
+          <t>2021-10-05 14:22:31.013208</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526063</t>
+          <t>2021-10-05 14:22:31.013210</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526065</t>
+          <t>2021-10-05 14:22:31.013213</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526068</t>
+          <t>2021-10-05 14:22:31.013215</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526071</t>
+          <t>2021-10-05 14:22:31.013218</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526073</t>
+          <t>2021-10-05 14:22:31.013220</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526076</t>
+          <t>2021-10-05 14:22:31.013223</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526079</t>
+          <t>2021-10-05 14:22:31.013226</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526081</t>
+          <t>2021-10-05 14:22:31.013228</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526084</t>
+          <t>2021-10-05 14:22:31.013231</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526087</t>
+          <t>2021-10-05 14:22:31.013234</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526090</t>
+          <t>2021-10-05 14:22:31.013236</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526092</t>
+          <t>2021-10-05 14:22:31.013239</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526097</t>
+          <t>2021-10-05 14:22:31.013243</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526101</t>
+          <t>2021-10-05 14:22:31.013246</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526103</t>
+          <t>2021-10-05 14:22:31.013248</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526106</t>
+          <t>2021-10-05 14:22:31.013251</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526109</t>
+          <t>2021-10-05 14:22:31.013254</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526111</t>
+          <t>2021-10-05 14:22:31.013256</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526114</t>
+          <t>2021-10-05 14:22:31.013259</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526117</t>
+          <t>2021-10-05 14:22:31.013262</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526120</t>
+          <t>2021-10-05 14:22:31.013264</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526122</t>
+          <t>2021-10-05 14:22:31.013267</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526125</t>
+          <t>2021-10-05 14:22:31.013269</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526128</t>
+          <t>2021-10-05 14:22:31.013272</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526130</t>
+          <t>2021-10-05 14:22:31.013274</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526133</t>
+          <t>2021-10-05 14:22:31.013277</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526136</t>
+          <t>2021-10-05 14:22:31.013279</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526138</t>
+          <t>2021-10-05 14:22:31.013282</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526141</t>
+          <t>2021-10-05 14:22:31.013284</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526144</t>
+          <t>2021-10-05 14:22:31.013287</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526147</t>
+          <t>2021-10-05 14:22:31.013290</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526150</t>
+          <t>2021-10-05 14:22:31.013292</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526152</t>
+          <t>2021-10-05 14:22:31.013295</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526155</t>
+          <t>2021-10-05 14:22:31.013297</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526158</t>
+          <t>2021-10-05 14:22:31.013300</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526160</t>
+          <t>2021-10-05 14:22:31.013302</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526163</t>
+          <t>2021-10-05 14:22:31.013305</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526166</t>
+          <t>2021-10-05 14:22:31.013308</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526168</t>
+          <t>2021-10-05 14:22:31.013310</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526171</t>
+          <t>2021-10-05 14:22:31.013313</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526174</t>
+          <t>2021-10-05 14:22:31.013315</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526177</t>
+          <t>2021-10-05 14:22:31.013318</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526180</t>
+          <t>2021-10-05 14:22:31.013320</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526182</t>
+          <t>2021-10-05 14:22:31.013323</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526185</t>
+          <t>2021-10-05 14:22:31.013326</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526188</t>
+          <t>2021-10-05 14:22:31.013328</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526191</t>
+          <t>2021-10-05 14:22:31.013331</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526193</t>
+          <t>2021-10-05 14:22:31.013333</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526196</t>
+          <t>2021-10-05 14:22:31.013336</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526199</t>
+          <t>2021-10-05 14:22:31.013339</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526202</t>
+          <t>2021-10-05 14:22:31.013341</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526204</t>
+          <t>2021-10-05 14:22:31.013344</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526207</t>
+          <t>2021-10-05 14:22:31.013346</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526210</t>
+          <t>2021-10-05 14:22:31.013349</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526213</t>
+          <t>2021-10-05 14:22:31.013352</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526216</t>
+          <t>2021-10-05 14:22:31.013354</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526218</t>
+          <t>2021-10-05 14:22:31.013357</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526221</t>
+          <t>2021-10-05 14:22:31.013359</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526224</t>
+          <t>2021-10-05 14:22:31.013362</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526227</t>
+          <t>2021-10-05 14:22:31.013365</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526229</t>
+          <t>2021-10-05 14:22:31.013367</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526232</t>
+          <t>2021-10-05 14:22:31.013370</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526235</t>
+          <t>2021-10-05 14:22:31.013372</t>
         </is>
       </c>
     </row>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526237</t>
+          <t>2021-10-05 14:22:31.013375</t>
         </is>
       </c>
     </row>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526240</t>
+          <t>2021-10-05 14:22:31.013378</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19837,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526243</t>
+          <t>2021-10-05 14:22:31.013380</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526245</t>
+          <t>2021-10-05 14:22:31.013383</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19897,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526248</t>
+          <t>2021-10-05 14:22:31.013385</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19927,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526251</t>
+          <t>2021-10-05 14:22:31.013388</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526254</t>
+          <t>2021-10-05 14:22:31.013391</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526256</t>
+          <t>2021-10-05 14:22:31.013393</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526259</t>
+          <t>2021-10-05 14:22:31.013396</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526262</t>
+          <t>2021-10-05 14:22:31.013398</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526265</t>
+          <t>2021-10-05 14:22:31.013401</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20107,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526268</t>
+          <t>2021-10-05 14:22:31.013403</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526271</t>
+          <t>2021-10-05 14:22:31.013406</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20167,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526274</t>
+          <t>2021-10-05 14:22:31.013409</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526276</t>
+          <t>2021-10-05 14:22:31.013411</t>
         </is>
       </c>
     </row>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526279</t>
+          <t>2021-10-05 14:22:31.013414</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20257,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526282</t>
+          <t>2021-10-05 14:22:31.013416</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526284</t>
+          <t>2021-10-05 14:22:31.013419</t>
         </is>
       </c>
     </row>
@@ -20316,7 +20317,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526287</t>
+          <t>2021-10-05 14:22:31.013422</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20347,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526290</t>
+          <t>2021-10-05 14:22:31.013424</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20377,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526292</t>
+          <t>2021-10-05 14:22:31.013427</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20407,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526295</t>
+          <t>2021-10-05 14:22:31.013430</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20437,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526298</t>
+          <t>2021-10-05 14:22:31.013432</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20467,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526301</t>
+          <t>2021-10-05 14:22:31.013435</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526304</t>
+          <t>2021-10-05 14:22:31.013437</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526307</t>
+          <t>2021-10-05 14:22:31.013440</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526310</t>
+          <t>2021-10-05 14:22:31.013443</t>
         </is>
       </c>
     </row>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526312</t>
+          <t>2021-10-05 14:22:31.013445</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526315</t>
+          <t>2021-10-05 14:22:31.013448</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20647,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526320</t>
+          <t>2021-10-05 14:22:31.013452</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526323</t>
+          <t>2021-10-05 14:22:31.013455</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526326</t>
+          <t>2021-10-05 14:22:31.013458</t>
         </is>
       </c>
     </row>
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526329</t>
+          <t>2021-10-05 14:22:31.013461</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526332</t>
+          <t>2021-10-05 14:22:31.013463</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526335</t>
+          <t>2021-10-05 14:22:31.013466</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20827,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526338</t>
+          <t>2021-10-05 14:22:31.013469</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526340</t>
+          <t>2021-10-05 14:22:31.013472</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526343</t>
+          <t>2021-10-05 14:22:31.013474</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526346</t>
+          <t>2021-10-05 14:22:31.013477</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526349</t>
+          <t>2021-10-05 14:22:31.013479</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526351</t>
+          <t>2021-10-05 14:22:31.013482</t>
         </is>
       </c>
     </row>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526354</t>
+          <t>2021-10-05 14:22:31.013484</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526357</t>
+          <t>2021-10-05 14:22:31.013487</t>
         </is>
       </c>
     </row>
@@ -21066,7 +21067,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526359</t>
+          <t>2021-10-05 14:22:31.013490</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526362</t>
+          <t>2021-10-05 14:22:31.013492</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526365</t>
+          <t>2021-10-05 14:22:31.013495</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526368</t>
+          <t>2021-10-05 14:22:31.013497</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21187,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526371</t>
+          <t>2021-10-05 14:22:31.013500</t>
         </is>
       </c>
     </row>
@@ -21216,7 +21217,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526373</t>
+          <t>2021-10-05 14:22:31.013503</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21247,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526376</t>
+          <t>2021-10-05 14:22:31.013505</t>
         </is>
       </c>
     </row>
@@ -21276,7 +21277,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526379</t>
+          <t>2021-10-05 14:22:31.013508</t>
         </is>
       </c>
     </row>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526382</t>
+          <t>2021-10-05 14:22:31.013510</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21337,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526384</t>
+          <t>2021-10-05 14:22:31.013513</t>
         </is>
       </c>
     </row>
@@ -21366,7 +21367,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526387</t>
+          <t>2021-10-05 14:22:31.013515</t>
         </is>
       </c>
     </row>
@@ -21396,7 +21397,7 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526390</t>
+          <t>2021-10-05 14:22:31.013518</t>
         </is>
       </c>
     </row>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526393</t>
+          <t>2021-10-05 14:22:31.013520</t>
         </is>
       </c>
     </row>
@@ -21456,7 +21457,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526395</t>
+          <t>2021-10-05 14:22:31.013523</t>
         </is>
       </c>
     </row>
@@ -21486,7 +21487,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526398</t>
+          <t>2021-10-05 14:22:31.013526</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21517,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526401</t>
+          <t>2021-10-05 14:22:31.013528</t>
         </is>
       </c>
     </row>
@@ -21546,7 +21547,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526403</t>
+          <t>2021-10-05 14:22:31.013531</t>
         </is>
       </c>
     </row>
@@ -21576,7 +21577,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526406</t>
+          <t>2021-10-05 14:22:31.013533</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21607,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526409</t>
+          <t>2021-10-05 14:22:31.013536</t>
         </is>
       </c>
     </row>
@@ -21636,7 +21637,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526412</t>
+          <t>2021-10-05 14:22:31.013539</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21667,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526414</t>
+          <t>2021-10-05 14:22:31.013541</t>
         </is>
       </c>
     </row>
@@ -21696,7 +21697,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526417</t>
+          <t>2021-10-05 14:22:31.013544</t>
         </is>
       </c>
     </row>
@@ -21726,7 +21727,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526420</t>
+          <t>2021-10-05 14:22:31.013547</t>
         </is>
       </c>
     </row>
@@ -21756,7 +21757,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526423</t>
+          <t>2021-10-05 14:22:31.013549</t>
         </is>
       </c>
     </row>
@@ -21786,7 +21787,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526425</t>
+          <t>2021-10-05 14:22:31.013552</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21817,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526428</t>
+          <t>2021-10-05 14:22:31.013554</t>
         </is>
       </c>
     </row>
@@ -21846,7 +21847,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526431</t>
+          <t>2021-10-05 14:22:31.013557</t>
         </is>
       </c>
     </row>
@@ -21876,7 +21877,7 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526434</t>
+          <t>2021-10-05 14:22:31.013560</t>
         </is>
       </c>
     </row>
@@ -21906,7 +21907,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526437</t>
+          <t>2021-10-05 14:22:31.013562</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21937,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526439</t>
+          <t>2021-10-05 14:22:31.013565</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21967,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526442</t>
+          <t>2021-10-05 14:22:31.013567</t>
         </is>
       </c>
     </row>
@@ -21996,7 +21997,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526445</t>
+          <t>2021-10-05 14:22:31.013570</t>
         </is>
       </c>
     </row>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526447</t>
+          <t>2021-10-05 14:22:31.013573</t>
         </is>
       </c>
     </row>
@@ -22056,7 +22057,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526450</t>
+          <t>2021-10-05 14:22:31.013575</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22087,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526453</t>
+          <t>2021-10-05 14:22:31.013578</t>
         </is>
       </c>
     </row>
@@ -22116,7 +22117,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526455</t>
+          <t>2021-10-05 14:22:31.013580</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22147,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526458</t>
+          <t>2021-10-05 14:22:31.013583</t>
         </is>
       </c>
     </row>
@@ -22176,7 +22177,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526461</t>
+          <t>2021-10-05 14:22:31.013585</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22207,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526463</t>
+          <t>2021-10-05 14:22:31.013588</t>
         </is>
       </c>
     </row>
@@ -22236,7 +22237,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526466</t>
+          <t>2021-10-05 14:22:31.013591</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22267,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526469</t>
+          <t>2021-10-05 14:22:31.013593</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22297,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526472</t>
+          <t>2021-10-05 14:22:31.013599</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22327,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526474</t>
+          <t>2021-10-05 14:22:31.013602</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22357,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526477</t>
+          <t>2021-10-05 14:22:31.013604</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22387,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526480</t>
+          <t>2021-10-05 14:22:31.013607</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22417,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526483</t>
+          <t>2021-10-05 14:22:31.013610</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22447,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526485</t>
+          <t>2021-10-05 14:22:31.013612</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22477,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526488</t>
+          <t>2021-10-05 14:22:31.013615</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22507,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526491</t>
+          <t>2021-10-05 14:22:31.013617</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22537,7 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526494</t>
+          <t>2021-10-05 14:22:31.013620</t>
         </is>
       </c>
     </row>
@@ -22566,7 +22567,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526496</t>
+          <t>2021-10-05 14:22:31.013622</t>
         </is>
       </c>
     </row>
@@ -22596,7 +22597,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526499</t>
+          <t>2021-10-05 14:22:31.013625</t>
         </is>
       </c>
     </row>
@@ -22626,7 +22627,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526502</t>
+          <t>2021-10-05 14:22:31.013628</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22657,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526504</t>
+          <t>2021-10-05 14:22:31.013630</t>
         </is>
       </c>
     </row>
@@ -22686,7 +22687,7 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526507</t>
+          <t>2021-10-05 14:22:31.013633</t>
         </is>
       </c>
     </row>
@@ -22716,7 +22717,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526510</t>
+          <t>2021-10-05 14:22:31.013636</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22747,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526513</t>
+          <t>2021-10-05 14:22:31.013638</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22777,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526515</t>
+          <t>2021-10-05 14:22:31.013641</t>
         </is>
       </c>
     </row>
@@ -22806,7 +22807,7 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526518</t>
+          <t>2021-10-05 14:22:31.013643</t>
         </is>
       </c>
     </row>
@@ -22836,7 +22837,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526521</t>
+          <t>2021-10-05 14:22:31.013646</t>
         </is>
       </c>
     </row>
@@ -22866,7 +22867,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526523</t>
+          <t>2021-10-05 14:22:31.013649</t>
         </is>
       </c>
     </row>
@@ -22896,7 +22897,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526526</t>
+          <t>2021-10-05 14:22:31.013651</t>
         </is>
       </c>
     </row>
@@ -22926,7 +22927,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526529</t>
+          <t>2021-10-05 14:22:31.013654</t>
         </is>
       </c>
     </row>
@@ -22956,7 +22957,7 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526532</t>
+          <t>2021-10-05 14:22:31.013656</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22987,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526534</t>
+          <t>2021-10-05 14:22:31.013659</t>
         </is>
       </c>
     </row>
@@ -23016,7 +23017,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526537</t>
+          <t>2021-10-05 14:22:31.013661</t>
         </is>
       </c>
     </row>
@@ -23046,7 +23047,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526539</t>
+          <t>2021-10-05 14:22:31.013664</t>
         </is>
       </c>
     </row>
@@ -23076,7 +23077,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526542</t>
+          <t>2021-10-05 14:22:31.013667</t>
         </is>
       </c>
     </row>
@@ -23106,7 +23107,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526545</t>
+          <t>2021-10-05 14:22:31.013669</t>
         </is>
       </c>
     </row>
@@ -23136,7 +23137,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526548</t>
+          <t>2021-10-05 14:22:31.013672</t>
         </is>
       </c>
     </row>
@@ -23166,7 +23167,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526550</t>
+          <t>2021-10-05 14:22:31.013675</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23197,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526553</t>
+          <t>2021-10-05 14:22:31.013677</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23227,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526556</t>
+          <t>2021-10-05 14:22:31.013680</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23257,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526558</t>
+          <t>2021-10-05 14:22:31.013682</t>
         </is>
       </c>
     </row>
@@ -23286,7 +23287,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526562</t>
+          <t>2021-10-05 14:22:31.013686</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23317,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526566</t>
+          <t>2021-10-05 14:22:31.013690</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23347,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526568</t>
+          <t>2021-10-05 14:22:31.013693</t>
         </is>
       </c>
     </row>
@@ -23376,7 +23377,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526571</t>
+          <t>2021-10-05 14:22:31.013696</t>
         </is>
       </c>
     </row>
@@ -23406,7 +23407,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526574</t>
+          <t>2021-10-05 14:22:31.013698</t>
         </is>
       </c>
     </row>
@@ -23436,7 +23437,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526576</t>
+          <t>2021-10-05 14:22:31.013701</t>
         </is>
       </c>
     </row>
@@ -23466,7 +23467,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526579</t>
+          <t>2021-10-05 14:22:31.013703</t>
         </is>
       </c>
     </row>
@@ -23496,7 +23497,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526582</t>
+          <t>2021-10-05 14:22:31.013706</t>
         </is>
       </c>
     </row>
@@ -23526,7 +23527,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526585</t>
+          <t>2021-10-05 14:22:31.013709</t>
         </is>
       </c>
     </row>
@@ -23556,7 +23557,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526587</t>
+          <t>2021-10-05 14:22:31.013711</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23587,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526590</t>
+          <t>2021-10-05 14:22:31.013714</t>
         </is>
       </c>
     </row>
@@ -23616,7 +23617,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526593</t>
+          <t>2021-10-05 14:22:31.013716</t>
         </is>
       </c>
     </row>
@@ -23646,7 +23647,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526596</t>
+          <t>2021-10-05 14:22:31.013719</t>
         </is>
       </c>
     </row>
@@ -23676,7 +23677,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526598</t>
+          <t>2021-10-05 14:22:31.013722</t>
         </is>
       </c>
     </row>
@@ -23706,7 +23707,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526601</t>
+          <t>2021-10-05 14:22:31.013724</t>
         </is>
       </c>
     </row>
@@ -23736,7 +23737,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526603</t>
+          <t>2021-10-05 14:22:31.013727</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23767,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526606</t>
+          <t>2021-10-05 14:22:31.013729</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23797,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526609</t>
+          <t>2021-10-05 14:22:31.013732</t>
         </is>
       </c>
     </row>
@@ -23826,7 +23827,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526612</t>
+          <t>2021-10-05 14:22:31.013734</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23857,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526614</t>
+          <t>2021-10-05 14:22:31.013737</t>
         </is>
       </c>
     </row>
@@ -23886,7 +23887,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526617</t>
+          <t>2021-10-05 14:22:31.013740</t>
         </is>
       </c>
     </row>
@@ -23916,7 +23917,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526619</t>
+          <t>2021-10-05 14:22:31.013742</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23947,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526622</t>
+          <t>2021-10-05 14:22:31.013745</t>
         </is>
       </c>
     </row>
@@ -23976,7 +23977,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526625</t>
+          <t>2021-10-05 14:22:31.013748</t>
         </is>
       </c>
     </row>
@@ -24006,7 +24007,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526627</t>
+          <t>2021-10-05 14:22:31.013750</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24037,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526630</t>
+          <t>2021-10-05 14:22:31.013753</t>
         </is>
       </c>
     </row>
@@ -24066,7 +24067,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526632</t>
+          <t>2021-10-05 14:22:31.013755</t>
         </is>
       </c>
     </row>
@@ -24096,7 +24097,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526635</t>
+          <t>2021-10-05 14:22:31.013758</t>
         </is>
       </c>
     </row>
@@ -24126,7 +24127,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526638</t>
+          <t>2021-10-05 14:22:31.013760</t>
         </is>
       </c>
     </row>
@@ -24156,7 +24157,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526640</t>
+          <t>2021-10-05 14:22:31.013763</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24187,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526643</t>
+          <t>2021-10-05 14:22:31.013766</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24217,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526646</t>
+          <t>2021-10-05 14:22:31.013768</t>
         </is>
       </c>
     </row>
@@ -24246,7 +24247,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526648</t>
+          <t>2021-10-05 14:22:31.013771</t>
         </is>
       </c>
     </row>
@@ -24276,7 +24277,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526651</t>
+          <t>2021-10-05 14:22:31.013774</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24307,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526654</t>
+          <t>2021-10-05 14:22:31.013776</t>
         </is>
       </c>
     </row>
@@ -24336,7 +24337,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526656</t>
+          <t>2021-10-05 14:22:31.013779</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24367,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526659</t>
+          <t>2021-10-05 14:22:31.013781</t>
         </is>
       </c>
     </row>
@@ -24396,7 +24397,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526661</t>
+          <t>2021-10-05 14:22:31.013784</t>
         </is>
       </c>
     </row>
@@ -24426,7 +24427,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526664</t>
+          <t>2021-10-05 14:22:31.013787</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24457,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526667</t>
+          <t>2021-10-05 14:22:31.013789</t>
         </is>
       </c>
     </row>
@@ -24486,7 +24487,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526669</t>
+          <t>2021-10-05 14:22:31.013792</t>
         </is>
       </c>
     </row>
@@ -24516,7 +24517,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526672</t>
+          <t>2021-10-05 14:22:31.013795</t>
         </is>
       </c>
     </row>
@@ -24546,7 +24547,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526674</t>
+          <t>2021-10-05 14:22:31.013797</t>
         </is>
       </c>
     </row>
@@ -24576,7 +24577,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526677</t>
+          <t>2021-10-05 14:22:31.013800</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24607,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526680</t>
+          <t>2021-10-05 14:22:31.013802</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24637,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526683</t>
+          <t>2021-10-05 14:22:31.013805</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24667,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526685</t>
+          <t>2021-10-05 14:22:31.013807</t>
         </is>
       </c>
     </row>
@@ -24696,7 +24697,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526688</t>
+          <t>2021-10-05 14:22:31.013810</t>
         </is>
       </c>
     </row>
@@ -24726,7 +24727,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526691</t>
+          <t>2021-10-05 14:22:31.013813</t>
         </is>
       </c>
     </row>
@@ -24756,7 +24757,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526693</t>
+          <t>2021-10-05 14:22:31.013816</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24787,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526696</t>
+          <t>2021-10-05 14:22:31.013818</t>
         </is>
       </c>
     </row>
@@ -24816,7 +24817,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526698</t>
+          <t>2021-10-05 14:22:31.013821</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24847,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526701</t>
+          <t>2021-10-05 14:22:31.013823</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24877,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526704</t>
+          <t>2021-10-05 14:22:31.013826</t>
         </is>
       </c>
     </row>
@@ -24906,7 +24907,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526706</t>
+          <t>2021-10-05 14:22:31.013829</t>
         </is>
       </c>
     </row>
@@ -24936,7 +24937,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526709</t>
+          <t>2021-10-05 14:22:31.013831</t>
         </is>
       </c>
     </row>
@@ -24966,7 +24967,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526711</t>
+          <t>2021-10-05 14:22:31.013834</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24997,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526714</t>
+          <t>2021-10-05 14:22:31.013837</t>
         </is>
       </c>
     </row>
@@ -25026,7 +25027,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526717</t>
+          <t>2021-10-05 14:22:31.013839</t>
         </is>
       </c>
     </row>
@@ -25056,7 +25057,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526719</t>
+          <t>2021-10-05 14:22:31.013842</t>
         </is>
       </c>
     </row>
@@ -25086,7 +25087,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526722</t>
+          <t>2021-10-05 14:22:31.013845</t>
         </is>
       </c>
     </row>
@@ -25116,7 +25117,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526725</t>
+          <t>2021-10-05 14:22:31.013847</t>
         </is>
       </c>
     </row>
@@ -25146,7 +25147,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526727</t>
+          <t>2021-10-05 14:22:31.013850</t>
         </is>
       </c>
     </row>
@@ -25176,7 +25177,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526730</t>
+          <t>2021-10-05 14:22:31.013852</t>
         </is>
       </c>
     </row>
@@ -25206,7 +25207,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526733</t>
+          <t>2021-10-05 14:22:31.013855</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25237,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526735</t>
+          <t>2021-10-05 14:22:31.013858</t>
         </is>
       </c>
     </row>
@@ -25266,7 +25267,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526738</t>
+          <t>2021-10-05 14:22:31.013860</t>
         </is>
       </c>
     </row>
@@ -25296,7 +25297,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526740</t>
+          <t>2021-10-05 14:22:31.013863</t>
         </is>
       </c>
     </row>
@@ -25326,7 +25327,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526743</t>
+          <t>2021-10-05 14:22:31.013865</t>
         </is>
       </c>
     </row>
@@ -25356,7 +25357,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526745</t>
+          <t>2021-10-05 14:22:31.013868</t>
         </is>
       </c>
     </row>
@@ -25386,7 +25387,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526748</t>
+          <t>2021-10-05 14:22:31.013871</t>
         </is>
       </c>
     </row>
@@ -25416,7 +25417,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526751</t>
+          <t>2021-10-05 14:22:31.013873</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25447,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526753</t>
+          <t>2021-10-05 14:22:31.013876</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25477,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526756</t>
+          <t>2021-10-05 14:22:31.013879</t>
         </is>
       </c>
     </row>
@@ -25506,7 +25507,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526759</t>
+          <t>2021-10-05 14:22:31.013881</t>
         </is>
       </c>
     </row>
@@ -25536,7 +25537,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526761</t>
+          <t>2021-10-05 14:22:31.013884</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25567,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526764</t>
+          <t>2021-10-05 14:22:31.013886</t>
         </is>
       </c>
     </row>
@@ -25596,7 +25597,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526767</t>
+          <t>2021-10-05 14:22:31.013889</t>
         </is>
       </c>
     </row>
@@ -25626,7 +25627,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526769</t>
+          <t>2021-10-05 14:22:31.013892</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25657,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526772</t>
+          <t>2021-10-05 14:22:31.013895</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25687,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526774</t>
+          <t>2021-10-05 14:22:31.013897</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25717,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526777</t>
+          <t>2021-10-05 14:22:31.013900</t>
         </is>
       </c>
     </row>
@@ -25746,7 +25747,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526780</t>
+          <t>2021-10-05 14:22:31.013902</t>
         </is>
       </c>
     </row>
@@ -25776,7 +25777,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526782</t>
+          <t>2021-10-05 14:22:31.013905</t>
         </is>
       </c>
     </row>
@@ -25806,7 +25807,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526785</t>
+          <t>2021-10-05 14:22:31.013907</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25837,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526787</t>
+          <t>2021-10-05 14:22:31.013910</t>
         </is>
       </c>
     </row>
@@ -25866,7 +25867,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526790</t>
+          <t>2021-10-05 14:22:31.013913</t>
         </is>
       </c>
     </row>
@@ -25896,7 +25897,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526793</t>
+          <t>2021-10-05 14:22:31.013915</t>
         </is>
       </c>
     </row>
@@ -25926,7 +25927,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526795</t>
+          <t>2021-10-05 14:22:31.013918</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25957,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526798</t>
+          <t>2021-10-05 14:22:31.013921</t>
         </is>
       </c>
     </row>
@@ -25986,7 +25987,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526801</t>
+          <t>2021-10-05 14:22:31.013923</t>
         </is>
       </c>
     </row>
@@ -26016,7 +26017,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526804</t>
+          <t>2021-10-05 14:22:31.013926</t>
         </is>
       </c>
     </row>
@@ -26046,7 +26047,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526807</t>
+          <t>2021-10-05 14:22:31.013928</t>
         </is>
       </c>
     </row>
@@ -26076,7 +26077,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526809</t>
+          <t>2021-10-05 14:22:31.013931</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26107,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526812</t>
+          <t>2021-10-05 14:22:31.013934</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26137,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526815</t>
+          <t>2021-10-05 14:22:31.013936</t>
         </is>
       </c>
     </row>
@@ -26166,7 +26167,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526818</t>
+          <t>2021-10-05 14:22:31.013939</t>
         </is>
       </c>
     </row>
@@ -26196,7 +26197,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526820</t>
+          <t>2021-10-05 14:22:31.013941</t>
         </is>
       </c>
     </row>
@@ -26226,7 +26227,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526823</t>
+          <t>2021-10-05 14:22:31.013944</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26257,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526825</t>
+          <t>2021-10-05 14:22:31.013947</t>
         </is>
       </c>
     </row>
@@ -26286,7 +26287,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526830</t>
+          <t>2021-10-05 14:22:31.013951</t>
         </is>
       </c>
     </row>
@@ -26316,7 +26317,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526833</t>
+          <t>2021-10-05 14:22:31.013955</t>
         </is>
       </c>
     </row>
@@ -26346,7 +26347,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526836</t>
+          <t>2021-10-05 14:22:31.013957</t>
         </is>
       </c>
     </row>
@@ -26376,7 +26377,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526839</t>
+          <t>2021-10-05 14:22:31.013960</t>
         </is>
       </c>
     </row>
@@ -26406,7 +26407,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526841</t>
+          <t>2021-10-05 14:22:31.013962</t>
         </is>
       </c>
     </row>
@@ -26436,7 +26437,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526844</t>
+          <t>2021-10-05 14:22:31.013965</t>
         </is>
       </c>
     </row>
@@ -26466,7 +26467,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526847</t>
+          <t>2021-10-05 14:22:31.013968</t>
         </is>
       </c>
     </row>
@@ -26496,7 +26497,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526849</t>
+          <t>2021-10-05 14:22:31.013970</t>
         </is>
       </c>
     </row>
@@ -26526,7 +26527,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526852</t>
+          <t>2021-10-05 14:22:31.013973</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26557,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526854</t>
+          <t>2021-10-05 14:22:31.013976</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26587,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526857</t>
+          <t>2021-10-05 14:22:31.013978</t>
         </is>
       </c>
     </row>
@@ -26616,7 +26617,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526859</t>
+          <t>2021-10-05 14:22:31.013981</t>
         </is>
       </c>
     </row>
@@ -26646,7 +26647,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526862</t>
+          <t>2021-10-05 14:22:31.013984</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26677,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526864</t>
+          <t>2021-10-05 14:22:31.013987</t>
         </is>
       </c>
     </row>
@@ -26706,7 +26707,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526867</t>
+          <t>2021-10-05 14:22:31.013989</t>
         </is>
       </c>
     </row>
@@ -26736,7 +26737,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526869</t>
+          <t>2021-10-05 14:22:31.013992</t>
         </is>
       </c>
     </row>
@@ -26766,7 +26767,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526872</t>
+          <t>2021-10-05 14:22:31.013995</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26797,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526874</t>
+          <t>2021-10-05 14:22:31.013998</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26827,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526877</t>
+          <t>2021-10-05 14:22:31.014000</t>
         </is>
       </c>
     </row>
@@ -26856,7 +26857,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526880</t>
+          <t>2021-10-05 14:22:31.014003</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26887,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526882</t>
+          <t>2021-10-05 14:22:31.014006</t>
         </is>
       </c>
     </row>
@@ -26916,7 +26917,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526885</t>
+          <t>2021-10-05 14:22:31.014009</t>
         </is>
       </c>
     </row>
@@ -26946,7 +26947,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526887</t>
+          <t>2021-10-05 14:22:31.014011</t>
         </is>
       </c>
     </row>
@@ -26976,7 +26977,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526890</t>
+          <t>2021-10-05 14:22:31.014014</t>
         </is>
       </c>
     </row>
@@ -27006,7 +27007,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526892</t>
+          <t>2021-10-05 14:22:31.014016</t>
         </is>
       </c>
     </row>
@@ -27036,7 +27037,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526895</t>
+          <t>2021-10-05 14:22:31.014019</t>
         </is>
       </c>
     </row>
@@ -27066,7 +27067,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526898</t>
+          <t>2021-10-05 14:22:31.014021</t>
         </is>
       </c>
     </row>
@@ -27096,7 +27097,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526900</t>
+          <t>2021-10-05 14:22:31.014024</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27127,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526903</t>
+          <t>2021-10-05 14:22:31.014027</t>
         </is>
       </c>
     </row>
@@ -27156,7 +27157,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526905</t>
+          <t>2021-10-05 14:22:31.014029</t>
         </is>
       </c>
     </row>
@@ -27186,7 +27187,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526908</t>
+          <t>2021-10-05 14:22:31.014032</t>
         </is>
       </c>
     </row>
@@ -27216,7 +27217,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526911</t>
+          <t>2021-10-05 14:22:31.014035</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27247,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526913</t>
+          <t>2021-10-05 14:22:31.014037</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27277,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526916</t>
+          <t>2021-10-05 14:22:31.014040</t>
         </is>
       </c>
     </row>
@@ -27306,7 +27307,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526918</t>
+          <t>2021-10-05 14:22:31.014042</t>
         </is>
       </c>
     </row>
@@ -27336,7 +27337,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526921</t>
+          <t>2021-10-05 14:22:31.014045</t>
         </is>
       </c>
     </row>
@@ -27366,7 +27367,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526923</t>
+          <t>2021-10-05 14:22:31.014048</t>
         </is>
       </c>
     </row>
@@ -27396,7 +27397,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526926</t>
+          <t>2021-10-05 14:22:31.014050</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27427,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526929</t>
+          <t>2021-10-05 14:22:31.014053</t>
         </is>
       </c>
     </row>
@@ -27456,7 +27457,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526931</t>
+          <t>2021-10-05 14:22:31.014056</t>
         </is>
       </c>
     </row>
@@ -27486,7 +27487,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526934</t>
+          <t>2021-10-05 14:22:31.014058</t>
         </is>
       </c>
     </row>
@@ -27516,7 +27517,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526937</t>
+          <t>2021-10-05 14:22:31.014061</t>
         </is>
       </c>
     </row>
@@ -27546,7 +27547,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526939</t>
+          <t>2021-10-05 14:22:31.014064</t>
         </is>
       </c>
     </row>
@@ -27576,7 +27577,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526942</t>
+          <t>2021-10-05 14:22:31.014066</t>
         </is>
       </c>
     </row>
@@ -27606,7 +27607,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526945</t>
+          <t>2021-10-05 14:22:31.014069</t>
         </is>
       </c>
     </row>
@@ -27636,7 +27637,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526947</t>
+          <t>2021-10-05 14:22:31.014071</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27667,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526950</t>
+          <t>2021-10-05 14:22:31.014074</t>
         </is>
       </c>
     </row>
@@ -27696,7 +27697,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526953</t>
+          <t>2021-10-05 14:22:31.014077</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27727,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526955</t>
+          <t>2021-10-05 14:22:31.014079</t>
         </is>
       </c>
     </row>
@@ -27756,7 +27757,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526958</t>
+          <t>2021-10-05 14:22:31.014082</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27787,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526960</t>
+          <t>2021-10-05 14:22:31.014084</t>
         </is>
       </c>
     </row>
@@ -27816,7 +27817,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526963</t>
+          <t>2021-10-05 14:22:31.014087</t>
         </is>
       </c>
     </row>
@@ -27846,7 +27847,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526965</t>
+          <t>2021-10-05 14:22:31.014090</t>
         </is>
       </c>
     </row>
@@ -27876,7 +27877,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526968</t>
+          <t>2021-10-05 14:22:31.014093</t>
         </is>
       </c>
     </row>
@@ -27906,7 +27907,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526971</t>
+          <t>2021-10-05 14:22:31.014095</t>
         </is>
       </c>
     </row>
@@ -27936,7 +27937,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526974</t>
+          <t>2021-10-05 14:22:31.014098</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27967,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526976</t>
+          <t>2021-10-05 14:22:31.014100</t>
         </is>
       </c>
     </row>
@@ -27996,7 +27997,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526979</t>
+          <t>2021-10-05 14:22:31.014103</t>
         </is>
       </c>
     </row>
@@ -28026,7 +28027,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526982</t>
+          <t>2021-10-05 14:22:31.014106</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28057,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526984</t>
+          <t>2021-10-05 14:22:31.014108</t>
         </is>
       </c>
     </row>
@@ -28086,7 +28087,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526987</t>
+          <t>2021-10-05 14:22:31.014111</t>
         </is>
       </c>
     </row>
@@ -28116,7 +28117,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526989</t>
+          <t>2021-10-05 14:22:31.014114</t>
         </is>
       </c>
     </row>
@@ -28146,7 +28147,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526992</t>
+          <t>2021-10-05 14:22:31.014116</t>
         </is>
       </c>
     </row>
@@ -28176,7 +28177,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526995</t>
+          <t>2021-10-05 14:22:31.014119</t>
         </is>
       </c>
     </row>
@@ -28206,7 +28207,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.526997</t>
+          <t>2021-10-05 14:22:31.014121</t>
         </is>
       </c>
     </row>
@@ -28236,7 +28237,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527000</t>
+          <t>2021-10-05 14:22:31.014124</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28267,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527003</t>
+          <t>2021-10-05 14:22:31.014126</t>
         </is>
       </c>
     </row>
@@ -28296,7 +28297,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527005</t>
+          <t>2021-10-05 14:22:31.014129</t>
         </is>
       </c>
     </row>
@@ -28326,7 +28327,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527008</t>
+          <t>2021-10-05 14:22:31.014132</t>
         </is>
       </c>
     </row>
@@ -28356,7 +28357,7 @@
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527010</t>
+          <t>2021-10-05 14:22:31.014134</t>
         </is>
       </c>
     </row>
@@ -28386,7 +28387,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527013</t>
+          <t>2021-10-05 14:22:31.014137</t>
         </is>
       </c>
     </row>
@@ -28416,7 +28417,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527016</t>
+          <t>2021-10-05 14:22:31.014139</t>
         </is>
       </c>
     </row>
@@ -28446,7 +28447,7 @@
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527018</t>
+          <t>2021-10-05 14:22:31.014142</t>
         </is>
       </c>
     </row>
@@ -28476,7 +28477,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527021</t>
+          <t>2021-10-05 14:22:31.014145</t>
         </is>
       </c>
     </row>
@@ -28506,7 +28507,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527023</t>
+          <t>2021-10-05 14:22:31.014147</t>
         </is>
       </c>
     </row>
@@ -28536,7 +28537,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527026</t>
+          <t>2021-10-05 14:22:31.014150</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28567,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527029</t>
+          <t>2021-10-05 14:22:31.014152</t>
         </is>
       </c>
     </row>
@@ -28596,7 +28597,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527031</t>
+          <t>2021-10-05 14:22:31.014155</t>
         </is>
       </c>
     </row>
@@ -28626,7 +28627,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527034</t>
+          <t>2021-10-05 14:22:31.014158</t>
         </is>
       </c>
     </row>
@@ -28656,7 +28657,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527036</t>
+          <t>2021-10-05 14:22:31.014161</t>
         </is>
       </c>
     </row>
@@ -28686,7 +28687,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527039</t>
+          <t>2021-10-05 14:22:31.014163</t>
         </is>
       </c>
     </row>
@@ -28716,7 +28717,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527042</t>
+          <t>2021-10-05 14:22:31.014166</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28747,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527044</t>
+          <t>2021-10-05 14:22:31.014168</t>
         </is>
       </c>
     </row>
@@ -28776,7 +28777,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527047</t>
+          <t>2021-10-05 14:22:31.014171</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28807,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527049</t>
+          <t>2021-10-05 14:22:31.014174</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28837,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527052</t>
+          <t>2021-10-05 14:22:31.014176</t>
         </is>
       </c>
     </row>
@@ -28866,7 +28867,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527054</t>
+          <t>2021-10-05 14:22:31.014179</t>
         </is>
       </c>
     </row>
@@ -28896,7 +28897,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527057</t>
+          <t>2021-10-05 14:22:31.014182</t>
         </is>
       </c>
     </row>
@@ -28926,7 +28927,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527059</t>
+          <t>2021-10-05 14:22:31.014184</t>
         </is>
       </c>
     </row>
@@ -28956,7 +28957,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527062</t>
+          <t>2021-10-05 14:22:31.014187</t>
         </is>
       </c>
     </row>
@@ -28986,7 +28987,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527064</t>
+          <t>2021-10-05 14:22:31.014189</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29017,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527067</t>
+          <t>2021-10-05 14:22:31.014192</t>
         </is>
       </c>
     </row>
@@ -29046,7 +29047,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527070</t>
+          <t>2021-10-05 14:22:31.014195</t>
         </is>
       </c>
     </row>
@@ -29076,7 +29077,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527073</t>
+          <t>2021-10-05 14:22:31.014197</t>
         </is>
       </c>
     </row>
@@ -29106,7 +29107,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527076</t>
+          <t>2021-10-05 14:22:31.014200</t>
         </is>
       </c>
     </row>
@@ -29136,7 +29137,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527078</t>
+          <t>2021-10-05 14:22:31.014203</t>
         </is>
       </c>
     </row>
@@ -29166,7 +29167,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527081</t>
+          <t>2021-10-05 14:22:31.014206</t>
         </is>
       </c>
     </row>
@@ -29196,7 +29197,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527083</t>
+          <t>2021-10-05 14:22:31.014209</t>
         </is>
       </c>
     </row>
@@ -29226,7 +29227,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527086</t>
+          <t>2021-10-05 14:22:31.014212</t>
         </is>
       </c>
     </row>
@@ -29256,7 +29257,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527089</t>
+          <t>2021-10-05 14:22:31.014214</t>
         </is>
       </c>
     </row>
@@ -29286,7 +29287,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527091</t>
+          <t>2021-10-05 14:22:31.014217</t>
         </is>
       </c>
     </row>
@@ -29316,7 +29317,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527094</t>
+          <t>2021-10-05 14:22:31.014220</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29347,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527097</t>
+          <t>2021-10-05 14:22:31.014222</t>
         </is>
       </c>
     </row>
@@ -29376,7 +29377,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527099</t>
+          <t>2021-10-05 14:22:31.014225</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29407,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527102</t>
+          <t>2021-10-05 14:22:31.014228</t>
         </is>
       </c>
     </row>
@@ -29436,7 +29437,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527105</t>
+          <t>2021-10-05 14:22:31.014231</t>
         </is>
       </c>
     </row>
@@ -29466,7 +29467,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527107</t>
+          <t>2021-10-05 14:22:31.014233</t>
         </is>
       </c>
     </row>
@@ -29496,7 +29497,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527110</t>
+          <t>2021-10-05 14:22:31.014236</t>
         </is>
       </c>
     </row>
@@ -29526,7 +29527,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527112</t>
+          <t>2021-10-05 14:22:31.014239</t>
         </is>
       </c>
     </row>
@@ -29556,7 +29557,7 @@
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527115</t>
+          <t>2021-10-05 14:22:31.014242</t>
         </is>
       </c>
     </row>
@@ -29586,7 +29587,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527118</t>
+          <t>2021-10-05 14:22:31.014244</t>
         </is>
       </c>
     </row>
@@ -29616,7 +29617,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527120</t>
+          <t>2021-10-05 14:22:31.014247</t>
         </is>
       </c>
     </row>
@@ -29646,7 +29647,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527124</t>
+          <t>2021-10-05 14:22:31.014252</t>
         </is>
       </c>
     </row>
@@ -29676,7 +29677,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527127</t>
+          <t>2021-10-05 14:22:31.014256</t>
         </is>
       </c>
     </row>
@@ -29706,7 +29707,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527130</t>
+          <t>2021-10-05 14:22:31.014259</t>
         </is>
       </c>
     </row>
@@ -29736,7 +29737,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527133</t>
+          <t>2021-10-05 14:22:31.014262</t>
         </is>
       </c>
     </row>
@@ -29766,7 +29767,91 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>2021-10-05 13:41:59.527136</t>
+          <t>2021-10-05 14:22:31.014264</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renal superpanel - broad</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>902</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.398</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T10:34:36.960914Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:31.008230</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/902/?format=json</t>
         </is>
       </c>
     </row>
